--- a/data/trans_bre/P27A_3-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27A_3-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,12 +657,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -640,20 +672,40 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -673,12 +725,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -740,12 +812,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -754,6 +826,26 @@
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -806,6 +898,26 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,20 +952,40 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-31,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -902,6 +1034,26 @@
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -925,12 +1077,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,20 +1092,40 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -973,12 +1145,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1002,6 +1174,26 @@
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1025,12 +1217,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1040,20 +1232,40 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>227,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1073,12 +1285,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,10 +1310,30 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-62,99; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1120,17 +1352,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1140,20 +1372,40 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1168,17 +1420,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1202,6 +1454,26 @@
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1225,12 +1497,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1240,20 +1512,40 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1268,17 +1560,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,17 +1585,44 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 717,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 159,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
